--- a/biology/Botanique/Senecio_sarracenicus/Senecio_sarracenicus.xlsx
+++ b/biology/Botanique/Senecio_sarracenicus/Senecio_sarracenicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senecio sarracenicus, le séneçon des cours d'eau, est une espèce de plantes à fleurs de la vaste famille des Asteraceae (Composées).
 Il est aussi appelé « séneçon des saussaies » ou « séneçon des fleuves »
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de 60 à 150 cm de hauteur (peut atteindre 2 m). Feuilles lancéolées et dentées. Fleurs jaunes, capitules à 2-9 fleurs ligulées. Souche rhizomateuse. Rhizomes minces atteignant 40 cm de longueur.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémicryptophyte ou hélophyte.
 </t>
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Berges, saussaies.
 Phytosociologie: Convolvulion sepii
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique : Europe centrale et orientale. Asie occidentale et septentrionale.
 France : vallée de la Moselle en Lorraine exclusivement.
@@ -638,7 +658,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est inscrite sur la liste des espèces végétales protégées en Lorraine, sous son nom scientifique synonyme de Senecio fluvialis Wallr.
 </t>
@@ -669,7 +691,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Solidago montana L.
 Senecio fluviatilis Wallr.</t>
